--- a/store/carpark_info.xlsx
+++ b/store/carpark_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanwe\OneDrive\Desktop\Integrum\carPark_db\store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC80984-128C-482A-968E-89FD502A08D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEC68AE-D4A1-49D1-8A5B-921D38ADE88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5265" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result 1" sheetId="1" r:id="rId1"/>
@@ -4919,7 +4919,7 @@
   <dimension ref="A1:O485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
